--- a/OnBoard/output/trust/catch/Catch_Trust_28.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_28.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,7 +417,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -437,19 +437,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Bolinus brandaris</t>
+          <t>Arnoglossus laterna</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MUREBRA</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="G2">
-        <v>0.798</v>
+        <v>0.064</v>
       </c>
       <c r="H2">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -478,19 +478,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Gobius niger</t>
+          <t>Chelidonichthys lucernus</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="G3">
-        <v>0.036</v>
+        <v>0.107</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -499,7 +499,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -519,19 +519,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hexaplex trunculus</t>
+          <t>Citharus linguatula</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>HEXATRU</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="G4">
-        <v>0.36</v>
+        <v>0.094</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -540,7 +540,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -560,19 +560,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Melicertus kerathurus</t>
+          <t>Gobius niger</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="G5">
-        <v>1.633</v>
+        <v>0.018</v>
       </c>
       <c r="H5">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -581,7 +581,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -601,19 +601,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Mullus barbatus</t>
+          <t>Melicertus kerathurus</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MULLBAR</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="G6">
-        <v>0.031</v>
+        <v>1.636</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -622,7 +622,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -642,19 +642,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ostrea edulis</t>
+          <t>Merluccius merluccius</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>OSTREDU</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="G7">
         <v>0.058</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -663,7 +663,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -683,16 +683,16 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pagellus erythrinus</t>
+          <t>Ostrea edulis</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>OSTREDU</t>
         </is>
       </c>
       <c r="G8">
-        <v>0.012</v>
+        <v>0.091</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -704,7 +704,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -724,19 +724,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Penaeus aztecus</t>
+          <t>Solea solea</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>PENAZTC</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="G9">
-        <v>0.05</v>
+        <v>0.314</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -745,7 +745,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Raja asterias</t>
+          <t>Squilla mantis</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="G10">
-        <v>0.167</v>
+        <v>0.303</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -786,7 +786,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -801,24 +801,24 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Solea solea</t>
+          <t>Arnoglossus laterna</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="G11">
-        <v>0.305</v>
+        <v>0.039</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -827,7 +827,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -842,24 +842,24 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Squilla mantis</t>
+          <t>Citharus linguatula</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="G12">
-        <v>0.102</v>
+        <v>0.044</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -868,7 +868,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -888,19 +888,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Arnoglossus laterna</t>
+          <t>Gobius niger</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="G13">
-        <v>0.02</v>
+        <v>0.058</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -909,7 +909,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -929,19 +929,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Bolinus brandaris</t>
+          <t>Illex coindetii</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MUREBRA</t>
+          <t>ILLECOI</t>
         </is>
       </c>
       <c r="G14">
-        <v>0.552</v>
+        <v>0.055</v>
       </c>
       <c r="H14">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -950,7 +950,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -970,19 +970,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Chelidonichthys lucernus</t>
+          <t>Lesueurigobius suerii</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>GOBISUE</t>
         </is>
       </c>
       <c r="G15">
-        <v>0.314</v>
+        <v>0.001</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -991,7 +991,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1011,19 +1011,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Chlamys glabra</t>
+          <t>Melicertus kerathurus</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="G16">
-        <v>0.026</v>
+        <v>1.368</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1032,7 +1032,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1052,19 +1052,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Gobius niger</t>
+          <t>Merluccius merluccius</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="G17">
-        <v>0.05</v>
+        <v>0.066</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1073,7 +1073,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1093,19 +1093,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Hexaplex trunculus</t>
+          <t>Mullus barbatus</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>HEXATRU</t>
+          <t>MULLBAR</t>
         </is>
       </c>
       <c r="G18">
-        <v>0.209</v>
+        <v>0.068</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1114,7 +1114,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1134,16 +1134,16 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lesueurigobius suerii</t>
+          <t>Penaeus aztecus</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>GOBISUE</t>
+          <t>PENAZTC</t>
         </is>
       </c>
       <c r="G19">
-        <v>0.002</v>
+        <v>0.053</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1155,7 +1155,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1175,19 +1175,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Melicertus kerathurus</t>
+          <t>Sepia officinalis</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="G20">
-        <v>1.558</v>
+        <v>0.08</v>
       </c>
       <c r="H20">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1196,7 +1196,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1216,19 +1216,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Scophthalmus rhombus</t>
+          <t>Solea solea</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>SCOHRHO</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="G21">
-        <v>0.214</v>
+        <v>0.751</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1237,7 +1237,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1257,19 +1257,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Solea solea</t>
+          <t>Squilla mantis</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="G22">
-        <v>0.843</v>
+        <v>0.248</v>
       </c>
       <c r="H22">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1278,7 +1278,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1298,28 +1298,28 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Squilla mantis</t>
+          <t>Acanthocardia paucicostata</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>ACANPAU</t>
         </is>
       </c>
       <c r="G23">
-        <v>0.093</v>
+        <v>0.003</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>5.6966</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1339,28 +1339,28 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Trachurus mediterraneus</t>
+          <t>Actiniaria nd</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>TRACMED</t>
+          <t>ACTINND</t>
         </is>
       </c>
       <c r="G24">
-        <v>0.061</v>
+        <v>0.007</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>5.6966</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1380,28 +1380,28 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Alcyonium palmatum</t>
+          <t>Alpheus dentipes</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ALCYPAL</t>
+          <t>ALPHDEN</t>
         </is>
       </c>
       <c r="G25">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>5.2968</v>
+        <v>5.6966</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1430,19 +1430,19 @@
         </is>
       </c>
       <c r="G26">
-        <v>0.166</v>
+        <v>0.315</v>
       </c>
       <c r="H26">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I26">
-        <v>5.2968</v>
+        <v>5.6966</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1471,19 +1471,19 @@
         </is>
       </c>
       <c r="G27">
-        <v>0.059</v>
+        <v>0.035</v>
       </c>
       <c r="H27">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I27">
-        <v>5.2968</v>
+        <v>5.6966</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1512,19 +1512,19 @@
         </is>
       </c>
       <c r="G28">
-        <v>0.263</v>
+        <v>0.65</v>
       </c>
       <c r="H28">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="I28">
-        <v>5.2968</v>
+        <v>5.6966</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1553,19 +1553,19 @@
         </is>
       </c>
       <c r="G29">
-        <v>0.2</v>
+        <v>0.141</v>
       </c>
       <c r="H29">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="I29">
-        <v>5.2968</v>
+        <v>5.6966</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1594,19 +1594,19 @@
         </is>
       </c>
       <c r="G30">
-        <v>0.051</v>
+        <v>0.045</v>
       </c>
       <c r="H30">
         <v>-1</v>
       </c>
       <c r="I30">
-        <v>5.2968</v>
+        <v>5.6966</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1626,28 +1626,28 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Dardanus calidus</t>
+          <t>Bolinus brandaris</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>DARDCAL</t>
+          <t>MUREBRA</t>
         </is>
       </c>
       <c r="G31">
-        <v>0.008999999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I31">
-        <v>5.2968</v>
+        <v>5.6966</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1667,28 +1667,28 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Eggs of Murex</t>
+          <t>Calyptraea chinensis</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>EGGSMUR</t>
+          <t>CALICHI</t>
         </is>
       </c>
       <c r="G32">
-        <v>0.08699999999999999</v>
+        <v>0.001</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>5.2968</v>
+        <v>5.6966</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1708,28 +1708,28 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Eggs of Raja sp</t>
+          <t>Dardanus arrosor</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>EGGSRAJ</t>
+          <t>DARDARR</t>
         </is>
       </c>
       <c r="G33">
-        <v>0.005</v>
+        <v>0.018</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>5.2968</v>
+        <v>5.6966</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1749,28 +1749,28 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Epizoanthus spp</t>
+          <t>Eggs of Raja sp</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>EPIZSPP</t>
+          <t>EGGSRAJ</t>
         </is>
       </c>
       <c r="G34">
-        <v>0.002</v>
+        <v>0.039</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I34">
-        <v>5.2968</v>
+        <v>5.6966</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1799,19 +1799,19 @@
         </is>
       </c>
       <c r="G35">
-        <v>0.031</v>
+        <v>0.159</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="I35">
-        <v>5.2968</v>
+        <v>5.6966</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1831,28 +1831,28 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Inachus comunissimus</t>
+          <t>Hexaplex trunculus</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>INACCOM</t>
+          <t>HEXATRU</t>
         </is>
       </c>
       <c r="G36">
-        <v>0.001</v>
+        <v>0.078</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>5.2968</v>
+        <v>5.6966</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1881,19 +1881,19 @@
         </is>
       </c>
       <c r="G37">
-        <v>0.196</v>
+        <v>1.255</v>
       </c>
       <c r="H37">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I37">
-        <v>5.2968</v>
+        <v>5.6966</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1913,28 +1913,28 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Maldanidae nd</t>
+          <t>Medorippe lanata</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>MALDAND</t>
+          <t>MEDOLAN</t>
         </is>
       </c>
       <c r="G38">
-        <v>0.001</v>
+        <v>0.113</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I38">
-        <v>5.2968</v>
+        <v>5.6966</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1954,28 +1954,28 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Medorippe lanata</t>
+          <t>Microcosmus vulgaris</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>MEDOLAN</t>
+          <t>MICRSUL</t>
         </is>
       </c>
       <c r="G39">
-        <v>0.068</v>
+        <v>0.006</v>
       </c>
       <c r="H39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>5.2968</v>
+        <v>5.6966</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1995,28 +1995,28 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Modiolus barbatus</t>
+          <t>Musculus subpictus</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>MODIBAR</t>
+          <t>MUSCSUB</t>
         </is>
       </c>
       <c r="G40">
-        <v>0.008</v>
+        <v>0.001</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I40">
-        <v>5.2968</v>
+        <v>5.6966</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2045,19 +2045,19 @@
         </is>
       </c>
       <c r="G41">
-        <v>0.006</v>
+        <v>0.017</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>5.2968</v>
+        <v>5.6966</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2077,28 +2077,28 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Ophiura ophiura</t>
+          <t>Natica stercusmuscarum</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>OPHIOPH</t>
+          <t>NATISTE</t>
         </is>
       </c>
       <c r="G42">
         <v>0.019</v>
       </c>
       <c r="H42">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>5.2968</v>
+        <v>5.6966</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2118,28 +2118,28 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Polychaeta n.d. Tubes</t>
+          <t>Ocnus planci (=Cucumaria planci)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>TUBEPOL</t>
+          <t>OCNUPLA</t>
         </is>
       </c>
       <c r="G43">
-        <v>0.001</v>
+        <v>0.015</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>5.2968</v>
+        <v>5.6966</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2159,28 +2159,28 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Schizaster canaliferus</t>
+          <t>Polychaeta n.d. Tubes</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>SCHICAN</t>
+          <t>TUBEPOL</t>
         </is>
       </c>
       <c r="G44">
-        <v>0.033</v>
+        <v>0.001</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>5.2968</v>
+        <v>5.6966</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2200,28 +2200,28 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Shells NA</t>
+          <t>Schizaster canaliferus</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>SHELLS</t>
+          <t>SCHICAN</t>
         </is>
       </c>
       <c r="G45">
-        <v>1.053</v>
+        <v>0.025</v>
       </c>
       <c r="H45">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>5.2968</v>
+        <v>5.6966</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2241,28 +2241,28 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Sternaspis scutata</t>
+          <t>Shells NA</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>STERSCU</t>
+          <t>SHELLS</t>
         </is>
       </c>
       <c r="G46">
-        <v>0.001</v>
+        <v>1.169</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I46">
-        <v>5.2968</v>
+        <v>5.6966</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2282,28 +2282,28 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Stones NA</t>
+          <t>Squilla mantis</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>STONES</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="G47">
-        <v>0.031</v>
+        <v>0.005</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>5.2968</v>
+        <v>5.6966</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2323,28 +2323,28 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Trachythyone elongata</t>
+          <t>Stones NA</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>TRACELO</t>
+          <t>STONES</t>
         </is>
       </c>
       <c r="G48">
-        <v>0.003</v>
+        <v>0.011</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I48">
-        <v>5.2968</v>
+        <v>5.6966</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2364,28 +2364,28 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Trachythyone tergestina</t>
+          <t>Trachythyone elongata</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>TRACTER</t>
+          <t>TRACELO</t>
         </is>
       </c>
       <c r="G49">
-        <v>0.008</v>
+        <v>0.003</v>
       </c>
       <c r="H49">
         <v>2</v>
       </c>
       <c r="I49">
-        <v>5.2968</v>
+        <v>5.6966</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2405,28 +2405,28 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Turritella communis</t>
+          <t>Trachythyone tergestina</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>TURRCOM</t>
+          <t>TRACTER</t>
         </is>
       </c>
       <c r="G50">
-        <v>0.105</v>
+        <v>0.015</v>
       </c>
       <c r="H50">
-        <v>126</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>5.2968</v>
+        <v>5.6966</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2446,22 +2446,104 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
+          <t>Turritella communis</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>TURRCOM</t>
+        </is>
+      </c>
+      <c r="G51">
+        <v>0.161</v>
+      </c>
+      <c r="H51">
+        <v>172</v>
+      </c>
+      <c r="I51">
+        <v>5.6966</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Virgularia mirabilis</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>VIRGMIR</t>
+        </is>
+      </c>
+      <c r="G52">
+        <v>0.001</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52">
+        <v>5.6966</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>Wood NA</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>WOOD</t>
         </is>
       </c>
-      <c r="G51">
-        <v>0.377</v>
-      </c>
-      <c r="H51">
+      <c r="G53">
+        <v>0.467</v>
+      </c>
+      <c r="H53">
         <v>-1</v>
       </c>
-      <c r="I51">
-        <v>5.2968</v>
+      <c r="I53">
+        <v>5.6966</v>
       </c>
     </row>
   </sheetData>

--- a/OnBoard/output/trust/catch/Catch_Trust_28.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_28.xlsx
@@ -1313,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <v>5.6966</v>
+        <v>2.947435897435897</v>
       </c>
     </row>
     <row r="24">
@@ -1354,7 +1354,7 @@
         <v>22</v>
       </c>
       <c r="I24">
-        <v>5.6966</v>
+        <v>2.947435897435897</v>
       </c>
     </row>
     <row r="25">
@@ -1395,7 +1395,7 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <v>5.6966</v>
+        <v>2.947435897435897</v>
       </c>
     </row>
     <row r="26">
@@ -1436,7 +1436,7 @@
         <v>10</v>
       </c>
       <c r="I26">
-        <v>5.6966</v>
+        <v>2.947435897435897</v>
       </c>
     </row>
     <row r="27">
@@ -1477,7 +1477,7 @@
         <v>4</v>
       </c>
       <c r="I27">
-        <v>5.6966</v>
+        <v>2.947435897435897</v>
       </c>
     </row>
     <row r="28">
@@ -1518,7 +1518,7 @@
         <v>115</v>
       </c>
       <c r="I28">
-        <v>5.6966</v>
+        <v>2.947435897435897</v>
       </c>
     </row>
     <row r="29">
@@ -1559,7 +1559,7 @@
         <v>23</v>
       </c>
       <c r="I29">
-        <v>5.6966</v>
+        <v>2.947435897435897</v>
       </c>
     </row>
     <row r="30">
@@ -1600,7 +1600,7 @@
         <v>-1</v>
       </c>
       <c r="I30">
-        <v>5.6966</v>
+        <v>2.947435897435897</v>
       </c>
     </row>
     <row r="31">
@@ -1641,7 +1641,7 @@
         <v>39</v>
       </c>
       <c r="I31">
-        <v>5.6966</v>
+        <v>2.947435897435897</v>
       </c>
     </row>
     <row r="32">
@@ -1682,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="I32">
-        <v>5.6966</v>
+        <v>2.947435897435897</v>
       </c>
     </row>
     <row r="33">
@@ -1723,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="I33">
-        <v>5.6966</v>
+        <v>2.947435897435897</v>
       </c>
     </row>
     <row r="34">
@@ -1764,7 +1764,7 @@
         <v>22</v>
       </c>
       <c r="I34">
-        <v>5.6966</v>
+        <v>2.947435897435897</v>
       </c>
     </row>
     <row r="35">
@@ -1805,7 +1805,7 @@
         <v>21</v>
       </c>
       <c r="I35">
-        <v>5.6966</v>
+        <v>2.947435897435897</v>
       </c>
     </row>
     <row r="36">
@@ -1846,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="I36">
-        <v>5.6966</v>
+        <v>2.947435897435897</v>
       </c>
     </row>
     <row r="37">
@@ -1887,7 +1887,7 @@
         <v>127</v>
       </c>
       <c r="I37">
-        <v>5.6966</v>
+        <v>2.947435897435897</v>
       </c>
     </row>
     <row r="38">
@@ -1928,7 +1928,7 @@
         <v>9</v>
       </c>
       <c r="I38">
-        <v>5.6966</v>
+        <v>2.947435897435897</v>
       </c>
     </row>
     <row r="39">
@@ -1969,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="I39">
-        <v>5.6966</v>
+        <v>2.947435897435897</v>
       </c>
     </row>
     <row r="40">
@@ -2010,7 +2010,7 @@
         <v>5</v>
       </c>
       <c r="I40">
-        <v>5.6966</v>
+        <v>2.947435897435897</v>
       </c>
     </row>
     <row r="41">
@@ -2051,7 +2051,7 @@
         <v>3</v>
       </c>
       <c r="I41">
-        <v>5.6966</v>
+        <v>2.947435897435897</v>
       </c>
     </row>
     <row r="42">
@@ -2092,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="I42">
-        <v>5.6966</v>
+        <v>2.947435897435897</v>
       </c>
     </row>
     <row r="43">
@@ -2133,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="I43">
-        <v>5.6966</v>
+        <v>2.947435897435897</v>
       </c>
     </row>
     <row r="44">
@@ -2174,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="I44">
-        <v>5.6966</v>
+        <v>2.947435897435897</v>
       </c>
     </row>
     <row r="45">
@@ -2215,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="I45">
-        <v>5.6966</v>
+        <v>2.947435897435897</v>
       </c>
     </row>
     <row r="46">
@@ -2256,7 +2256,7 @@
         <v>-1</v>
       </c>
       <c r="I46">
-        <v>5.6966</v>
+        <v>2.947435897435897</v>
       </c>
     </row>
     <row r="47">
@@ -2297,7 +2297,7 @@
         <v>2</v>
       </c>
       <c r="I47">
-        <v>5.6966</v>
+        <v>2.947435897435897</v>
       </c>
     </row>
     <row r="48">
@@ -2338,7 +2338,7 @@
         <v>-1</v>
       </c>
       <c r="I48">
-        <v>5.6966</v>
+        <v>2.947435897435897</v>
       </c>
     </row>
     <row r="49">
@@ -2379,7 +2379,7 @@
         <v>2</v>
       </c>
       <c r="I49">
-        <v>5.6966</v>
+        <v>2.947435897435897</v>
       </c>
     </row>
     <row r="50">
@@ -2420,7 +2420,7 @@
         <v>3</v>
       </c>
       <c r="I50">
-        <v>5.6966</v>
+        <v>2.947435897435897</v>
       </c>
     </row>
     <row r="51">
@@ -2461,7 +2461,7 @@
         <v>172</v>
       </c>
       <c r="I51">
-        <v>5.6966</v>
+        <v>2.947435897435897</v>
       </c>
     </row>
     <row r="52">
@@ -2502,7 +2502,7 @@
         <v>3</v>
       </c>
       <c r="I52">
-        <v>5.6966</v>
+        <v>2.947435897435897</v>
       </c>
     </row>
     <row r="53">
@@ -2543,7 +2543,7 @@
         <v>-1</v>
       </c>
       <c r="I53">
-        <v>5.6966</v>
+        <v>2.947435897435897</v>
       </c>
     </row>
   </sheetData>

--- a/OnBoard/output/trust/catch/Catch_Trust_28.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_28.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="G22">
-        <v>0.248</v>
+        <v>0.253</v>
       </c>
       <c r="H22">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2282,19 +2282,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Squilla mantis</t>
+          <t>Stones NA</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>STONES</t>
         </is>
       </c>
       <c r="G47">
-        <v>0.005</v>
+        <v>0.011</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I47">
         <v>2.947435897435897</v>
@@ -2323,19 +2323,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Stones NA</t>
+          <t>Trachythyone elongata</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>STONES</t>
+          <t>TRACELO</t>
         </is>
       </c>
       <c r="G48">
-        <v>0.011</v>
+        <v>0.003</v>
       </c>
       <c r="H48">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I48">
         <v>2.947435897435897</v>
@@ -2364,19 +2364,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Trachythyone elongata</t>
+          <t>Trachythyone tergestina</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>TRACELO</t>
+          <t>TRACTER</t>
         </is>
       </c>
       <c r="G49">
-        <v>0.003</v>
+        <v>0.015</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I49">
         <v>2.947435897435897</v>
@@ -2405,19 +2405,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Trachythyone tergestina</t>
+          <t>Turritella communis</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>TRACTER</t>
+          <t>TURRCOM</t>
         </is>
       </c>
       <c r="G50">
-        <v>0.015</v>
+        <v>0.161</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>172</v>
       </c>
       <c r="I50">
         <v>2.947435897435897</v>
@@ -2446,19 +2446,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Turritella communis</t>
+          <t>Virgularia mirabilis</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>TURRCOM</t>
+          <t>VIRGMIR</t>
         </is>
       </c>
       <c r="G51">
-        <v>0.161</v>
+        <v>0.001</v>
       </c>
       <c r="H51">
-        <v>172</v>
+        <v>3</v>
       </c>
       <c r="I51">
         <v>2.947435897435897</v>
@@ -2487,62 +2487,21 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Virgularia mirabilis</t>
+          <t>Wood NA</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>VIRGMIR</t>
+          <t>WOOD</t>
         </is>
       </c>
       <c r="G52">
-        <v>0.001</v>
+        <v>0.467</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I52">
-        <v>2.947435897435897</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>SOLEMON2025</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Wood NA</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>WOOD</t>
-        </is>
-      </c>
-      <c r="G53">
-        <v>0.467</v>
-      </c>
-      <c r="H53">
-        <v>-1</v>
-      </c>
-      <c r="I53">
         <v>2.947435897435897</v>
       </c>
     </row>
